--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1146336.945525272</v>
+        <v>1143988.905635845</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157197</v>
+        <v>5861169.4241572</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>185.7379222764304</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>105.9455272731793</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888701</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>71.27833349215702</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>148.3725158629812</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>318.157743319284</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748116</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>168.533638607443</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>110.92720347361</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>223.1498336210779</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>390.9553700021967</v>
+        <v>127.7116297869677</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118.575215977114</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H11" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292865</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159999</v>
+        <v>59.00713057159948</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T11" t="n">
         <v>205.8971077829946</v>
@@ -1467,7 +1467,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02016206544161</v>
+        <v>17.02016206544157</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>89.22326916192581</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>65.96440329867103</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
         <v>146.5581238002446</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159956</v>
+        <v>59.00713057159948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1704,7 +1704,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02016206544161</v>
+        <v>17.02016206544157</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>23.11574482173786</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H16" t="n">
         <v>146.5581238002446</v>
       </c>
       <c r="I16" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.650767117941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159956</v>
+        <v>59.00713057159948</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T17" t="n">
         <v>205.8971077829946</v>
@@ -1941,7 +1941,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02016206544161</v>
+        <v>17.02016206544157</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9793823296765072</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>149.7562484308541</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.05094259824702</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.00713057159956</v>
+        <v>59.00713057159948</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T20" t="n">
         <v>205.8971077829946</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0313412362223</v>
+        <v>251.0313412362227</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02016206544161</v>
+        <v>17.02016206544157</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.37739986504479</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.05094259824702</v>
       </c>
       <c r="S22" t="n">
         <v>193.3033399882067</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4154739963984</v>
+        <v>28.73973088839589</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I23" t="n">
-        <v>59.00713057159956</v>
+        <v>59.00713057159948</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T23" t="n">
         <v>205.8971077829946</v>
@@ -2415,7 +2415,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02016206544161</v>
+        <v>17.02016206544157</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.37739986504465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.05094259824702</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4154739963984</v>
+        <v>118.7113231507649</v>
       </c>
       <c r="U25" t="n">
         <v>286.2229002233179</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.0955237083905</v>
+        <v>70.77558225586344</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292502</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>53.82704427691608</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>192.8335951560902</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6898441249712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>216.3516027151603</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655188003</v>
+        <v>132.9117655187999</v>
       </c>
       <c r="C37" t="n">
-        <v>120.3266064354908</v>
+        <v>120.3266064354905</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550753</v>
+        <v>101.695258355075</v>
       </c>
       <c r="E37" t="n">
-        <v>98.20436462780896</v>
+        <v>99.51374798343181</v>
       </c>
       <c r="F37" t="n">
-        <v>98.50083335979423</v>
+        <v>98.50083335979389</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958912</v>
+        <v>119.1055935958909</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025118376</v>
+        <v>97.83480025118342</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43220574670107</v>
+        <v>48.12282239108443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.0119380069103</v>
+        <v>42.01193800690998</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683049</v>
+        <v>142.8488106683045</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130322</v>
+        <v>172.6287346130318</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424759</v>
+        <v>239.2916235424755</v>
       </c>
       <c r="V37" t="n">
-        <v>205.217428660691</v>
+        <v>205.2174286606906</v>
       </c>
       <c r="W37" t="n">
-        <v>239.602783673454</v>
+        <v>239.6027836734536</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407259001</v>
+        <v>178.7894407258998</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889578</v>
+        <v>171.6644386889574</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.217123115522</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1052.254606175111</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1052.254606175111</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>666.4663535768664</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>659.5208528276629</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>241.5570447258498</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036449</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990287</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990287</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.682881376602</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115522</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115522</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572651</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435192</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8312459770193</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8312459770193</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>272.8312459770193</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750366</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750366</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750366</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750366</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770193</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770193</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>542.7038197849505</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>528.7804157235414</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4574,43 +4574,43 @@
         <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548717</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2471.884402955341</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2471.884402955341</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.115747685226</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2119.115747685226</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572651</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036449</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477913</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658214</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064351</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>502.725111861912</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>502.725111861912</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>502.725111861912</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036449</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1562.968440970219</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.005924029808</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.005924029808</v>
+        <v>582.6562847294801</v>
       </c>
       <c r="E8" t="n">
-        <v>1194.005924029808</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034341</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1949.568281034341</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E11" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6719381947551</v>
+        <v>873.671938194756</v>
       </c>
       <c r="G11" t="n">
-        <v>458.142805245302</v>
+        <v>458.142805245303</v>
       </c>
       <c r="H11" t="n">
-        <v>155.882202185417</v>
+        <v>155.8822021854165</v>
       </c>
       <c r="I11" t="n">
         <v>96.27903999188166</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5747702342506</v>
+        <v>247.1691212138977</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.362364459017</v>
+        <v>844.9567154386642</v>
       </c>
       <c r="L11" t="n">
-        <v>1487.438622397155</v>
+        <v>1638.841713611666</v>
       </c>
       <c r="M11" t="n">
-        <v>2387.395193600495</v>
+        <v>2538.798284815006</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.308550287856</v>
+        <v>3005.711641502367</v>
       </c>
       <c r="O11" t="n">
-        <v>3658.858511106401</v>
+        <v>3723.917766780653</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.848905836292</v>
+        <v>4372.908161510544</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.991904648171</v>
+        <v>4783.051160322423</v>
       </c>
       <c r="R11" t="n">
         <v>4813.951999594083</v>
@@ -5069,22 +5069,22 @@
         <v>4693.254671942666</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H12" t="n">
         <v>113.4711228862671</v>
@@ -5118,25 +5118,25 @@
         <v>96.27903999188166</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3302917101807</v>
+        <v>167.3302917101809</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9230224985479</v>
+        <v>366.9230224985482</v>
       </c>
       <c r="L12" t="n">
-        <v>681.6226214715068</v>
+        <v>681.6226214715074</v>
       </c>
       <c r="M12" t="n">
-        <v>1068.219078224075</v>
+        <v>1068.219078224076</v>
       </c>
       <c r="N12" t="n">
-        <v>1479.456237748972</v>
+        <v>1479.456237748974</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.164547172219</v>
+        <v>1833.438101815144</v>
       </c>
       <c r="P12" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.004726840545</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.8041227042618</v>
+        <v>650.2628455733907</v>
       </c>
       <c r="C13" t="n">
-        <v>755.8679397763549</v>
+        <v>650.2628455733907</v>
       </c>
       <c r="D13" t="n">
-        <v>605.7513003640191</v>
+        <v>560.1383312684151</v>
       </c>
       <c r="E13" t="n">
-        <v>457.838206781626</v>
+        <v>412.225237686022</v>
       </c>
       <c r="F13" t="n">
-        <v>310.9482592837156</v>
+        <v>412.225237686022</v>
       </c>
       <c r="G13" t="n">
-        <v>244.3175488810176</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="H13" t="n">
         <v>96.27903999188166</v>
@@ -5197,52 +5197,52 @@
         <v>96.27903999188166</v>
       </c>
       <c r="J13" t="n">
-        <v>127.206836009603</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238317</v>
       </c>
       <c r="L13" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768324</v>
       </c>
       <c r="M13" t="n">
-        <v>907.2620358138198</v>
+        <v>907.2620358138203</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.89714421438</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862612</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.01982157672</v>
       </c>
       <c r="R13" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.01982157672</v>
       </c>
       <c r="S13" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.01982157672</v>
       </c>
       <c r="T13" t="n">
-        <v>1758.019821576723</v>
+        <v>1535.377928651065</v>
       </c>
       <c r="U13" t="n">
-        <v>1468.905780947109</v>
+        <v>1535.377928651065</v>
       </c>
       <c r="V13" t="n">
-        <v>1214.221292741222</v>
+        <v>1280.693440445178</v>
       </c>
       <c r="W13" t="n">
-        <v>924.8041227042618</v>
+        <v>1280.693440445178</v>
       </c>
       <c r="X13" t="n">
-        <v>924.8041227042618</v>
+        <v>1052.703889547161</v>
       </c>
       <c r="Y13" t="n">
-        <v>924.8041227042618</v>
+        <v>831.9113104036304</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129767</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189356</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.446095582608</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6719381947555</v>
+        <v>873.6719381947541</v>
       </c>
       <c r="G14" t="n">
-        <v>458.142805245303</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854165</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J14" t="n">
-        <v>414.5747702342506</v>
+        <v>247.1691212138977</v>
       </c>
       <c r="K14" t="n">
-        <v>1012.362364459017</v>
+        <v>844.9567154386642</v>
       </c>
       <c r="L14" t="n">
-        <v>1806.247362632018</v>
+        <v>1638.841713611666</v>
       </c>
       <c r="M14" t="n">
-        <v>2261.185535677454</v>
+        <v>2538.798284815006</v>
       </c>
       <c r="N14" t="n">
-        <v>3161.072347532679</v>
+        <v>3438.685096670231</v>
       </c>
       <c r="O14" t="n">
-        <v>3658.858511106402</v>
+        <v>3934.109607533958</v>
       </c>
       <c r="P14" t="n">
-        <v>4307.848905836293</v>
+        <v>4583.100002263849</v>
       </c>
       <c r="Q14" t="n">
-        <v>4717.991904648172</v>
+        <v>4783.051160322423</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594083</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394186</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044466</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700895</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430781</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169701</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193889</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H15" t="n">
         <v>113.4711228862671</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3302917101807</v>
+        <v>167.3302917101809</v>
       </c>
       <c r="K15" t="n">
-        <v>366.9230224985479</v>
+        <v>534.6729529971333</v>
       </c>
       <c r="L15" t="n">
-        <v>681.6226214715068</v>
+        <v>849.3725519700924</v>
       </c>
       <c r="M15" t="n">
-        <v>1443.945523581152</v>
+        <v>1235.969008722661</v>
       </c>
       <c r="N15" t="n">
-        <v>1855.182683106049</v>
+        <v>1647.206168247558</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.164547172219</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.004726840545</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.6595532152588</v>
+        <v>583.4875684620896</v>
       </c>
       <c r="C16" t="n">
-        <v>792.7233702873519</v>
+        <v>583.4875684620896</v>
       </c>
       <c r="D16" t="n">
-        <v>642.6067308750162</v>
+        <v>560.138331268415</v>
       </c>
       <c r="E16" t="n">
-        <v>494.693637292623</v>
+        <v>412.2252376860218</v>
       </c>
       <c r="F16" t="n">
-        <v>347.8036897947127</v>
+        <v>412.2252376860218</v>
       </c>
       <c r="G16" t="n">
-        <v>347.8036897947127</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7651809055766</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096032</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238317</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768324</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138199</v>
+        <v>907.2620358138206</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="R16" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="S16" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="T16" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.905780947109</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="V16" t="n">
-        <v>1468.905780947109</v>
+        <v>1503.335333370837</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.488610910149</v>
+        <v>1213.918163333877</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.488610910149</v>
+        <v>985.9286124358593</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.6595532152588</v>
+        <v>765.1360332923292</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2028.711794189358</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E17" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947553</v>
+        <v>873.671938194756</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1428052453025</v>
+        <v>458.1428052453024</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854165</v>
       </c>
       <c r="I17" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1691212138976</v>
+        <v>414.5747702342508</v>
       </c>
       <c r="K17" t="n">
-        <v>524.0527569932108</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L17" t="n">
-        <v>1054.465167229291</v>
+        <v>1806.247362632019</v>
       </c>
       <c r="M17" t="n">
-        <v>1954.421738432632</v>
+        <v>2387.395193600494</v>
       </c>
       <c r="N17" t="n">
-        <v>2854.308550287857</v>
+        <v>2854.308550287855</v>
       </c>
       <c r="O17" t="n">
-        <v>3658.858511106402</v>
+        <v>3658.858511106401</v>
       </c>
       <c r="P17" t="n">
-        <v>4307.848905836293</v>
+        <v>4307.848905836292</v>
       </c>
       <c r="Q17" t="n">
         <v>4717.991904648172</v>
@@ -5592,25 +5592,25 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3302917101807</v>
+        <v>292.1604166971856</v>
       </c>
       <c r="K18" t="n">
-        <v>427.371326902087</v>
+        <v>534.6729529971333</v>
       </c>
       <c r="L18" t="n">
-        <v>742.070925875046</v>
+        <v>849.3725519700924</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.667382627615</v>
+        <v>1235.969008722661</v>
       </c>
       <c r="N18" t="n">
-        <v>1539.904542152512</v>
+        <v>1647.206168247558</v>
       </c>
       <c r="O18" t="n">
-        <v>1893.886406218682</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P18" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.004726840545</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.26831507236287</v>
+        <v>712.4357632002611</v>
       </c>
       <c r="C19" t="n">
-        <v>97.26831507236287</v>
+        <v>543.4995802723543</v>
       </c>
       <c r="D19" t="n">
-        <v>97.26831507236287</v>
+        <v>543.4995802723543</v>
       </c>
       <c r="E19" t="n">
-        <v>97.26831507236287</v>
+        <v>395.5864866899612</v>
       </c>
       <c r="F19" t="n">
-        <v>96.27903999188167</v>
+        <v>395.5864866899612</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27903999188167</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="H19" t="n">
         <v>96.27903999188167</v>
@@ -5671,52 +5671,52 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J19" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096032</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238316</v>
+        <v>307.8675422238318</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768325</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138198</v>
+        <v>907.2620358138204</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P19" t="n">
         <v>1697.221745862616</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416879</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.763922598737</v>
+        <v>1658.978465416879</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.122029673082</v>
+        <v>1658.978465416879</v>
       </c>
       <c r="U19" t="n">
-        <v>1051.007989043467</v>
+        <v>1658.978465416879</v>
       </c>
       <c r="V19" t="n">
-        <v>796.3235008375806</v>
+        <v>1404.293977210992</v>
       </c>
       <c r="W19" t="n">
-        <v>506.9063308006199</v>
+        <v>1114.876807174031</v>
       </c>
       <c r="X19" t="n">
-        <v>278.9167799026026</v>
+        <v>1114.876807174031</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.9167799026026</v>
+        <v>894.0842280305009</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947541</v>
+        <v>873.6719381947551</v>
       </c>
       <c r="G20" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453024</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854165</v>
       </c>
       <c r="I20" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>414.5747702342506</v>
+        <v>414.5747702342508</v>
       </c>
       <c r="K20" t="n">
-        <v>912.8234449339662</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L20" t="n">
-        <v>1706.708443106968</v>
+        <v>1392.762760227073</v>
       </c>
       <c r="M20" t="n">
-        <v>2606.665014310308</v>
+        <v>2292.719331430414</v>
       </c>
       <c r="N20" t="n">
-        <v>3506.551826165533</v>
+        <v>2854.308550287855</v>
       </c>
       <c r="O20" t="n">
-        <v>3934.10960753396</v>
+        <v>3658.858511106401</v>
       </c>
       <c r="P20" t="n">
-        <v>4583.100002263851</v>
+        <v>4307.848905836292</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R20" t="n">
         <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3302917101807</v>
+        <v>167.3302917101809</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9230224985479</v>
+        <v>366.9230224985482</v>
       </c>
       <c r="L21" t="n">
-        <v>1048.754563321932</v>
+        <v>681.6226214715074</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.3510200745</v>
+        <v>1068.219078224076</v>
       </c>
       <c r="N21" t="n">
-        <v>1846.588179599397</v>
+        <v>1479.456237748974</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.164547172219</v>
+        <v>1893.886406218682</v>
       </c>
       <c r="P21" t="n">
         <v>2473.933134434442</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>278.9167799026029</v>
+        <v>662.6013260976273</v>
       </c>
       <c r="C22" t="n">
-        <v>278.9167799026029</v>
+        <v>662.6013260976273</v>
       </c>
       <c r="D22" t="n">
-        <v>278.9167799026029</v>
+        <v>662.6013260976273</v>
       </c>
       <c r="E22" t="n">
-        <v>131.0036863202097</v>
+        <v>662.6013260976273</v>
       </c>
       <c r="F22" t="n">
-        <v>96.27903999188167</v>
+        <v>515.7113785997169</v>
       </c>
       <c r="G22" t="n">
-        <v>96.27903999188167</v>
+        <v>347.8036897947126</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27903999188167</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="I22" t="n">
         <v>96.27903999188167</v>
@@ -5911,49 +5911,49 @@
         <v>127.2068360096031</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238318</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768325</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138199</v>
+        <v>907.2620358138204</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P22" t="n">
         <v>1697.221745862616</v>
       </c>
       <c r="Q22" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="R22" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="S22" t="n">
-        <v>1562.763922598737</v>
+        <v>1463.722566438892</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.122029673082</v>
+        <v>1434.692535238492</v>
       </c>
       <c r="U22" t="n">
-        <v>1051.007989043468</v>
+        <v>1434.692535238492</v>
       </c>
       <c r="V22" t="n">
-        <v>796.323500837581</v>
+        <v>1180.008047032605</v>
       </c>
       <c r="W22" t="n">
-        <v>506.9063308006203</v>
+        <v>890.5908769956446</v>
       </c>
       <c r="X22" t="n">
-        <v>278.9167799026029</v>
+        <v>662.6013260976273</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.9167799026029</v>
+        <v>662.6013260976273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947541</v>
+        <v>873.6719381947551</v>
       </c>
       <c r="G23" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453024</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854165</v>
       </c>
       <c r="I23" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J23" t="n">
-        <v>414.5747702342506</v>
+        <v>414.5747702342508</v>
       </c>
       <c r="K23" t="n">
-        <v>691.4584060135637</v>
+        <v>789.3527308993612</v>
       </c>
       <c r="L23" t="n">
-        <v>1485.343404186565</v>
+        <v>1583.237729072363</v>
       </c>
       <c r="M23" t="n">
-        <v>2385.299975389905</v>
+        <v>2483.194300275703</v>
       </c>
       <c r="N23" t="n">
-        <v>3285.18678724513</v>
+        <v>3383.081112130929</v>
       </c>
       <c r="O23" t="n">
-        <v>3712.744568613557</v>
+        <v>4187.631072949474</v>
       </c>
       <c r="P23" t="n">
-        <v>4361.734963343449</v>
+        <v>4518.040746589598</v>
       </c>
       <c r="Q23" t="n">
-        <v>4771.877962155328</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R23" t="n">
         <v>4813.951999594084</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3302917101807</v>
+        <v>292.1604166971856</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9230224985479</v>
+        <v>534.6729529971333</v>
       </c>
       <c r="L24" t="n">
-        <v>681.6226214715068</v>
+        <v>849.3725519700924</v>
       </c>
       <c r="M24" t="n">
-        <v>1068.219078224075</v>
+        <v>1235.969008722661</v>
       </c>
       <c r="N24" t="n">
-        <v>1479.456237748972</v>
+        <v>1647.206168247558</v>
       </c>
       <c r="O24" t="n">
-        <v>1833.438101815143</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P24" t="n">
         <v>2265.956619575952</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.9167799026026</v>
+        <v>813.6210443261227</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1921335742748</v>
+        <v>644.6848613982158</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1921335742748</v>
+        <v>494.5682219858801</v>
       </c>
       <c r="E25" t="n">
-        <v>96.27903999188167</v>
+        <v>346.655128403487</v>
       </c>
       <c r="F25" t="n">
-        <v>96.27903999188167</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="G25" t="n">
-        <v>96.27903999188167</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="H25" t="n">
-        <v>96.27903999188167</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="I25" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096032</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238317</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768324</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138196</v>
+        <v>907.2620358138203</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862615</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q25" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="R25" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.763922598736</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.122029673081</v>
+        <v>1539.068037991863</v>
       </c>
       <c r="U25" t="n">
-        <v>1051.007989043467</v>
+        <v>1249.953997362249</v>
       </c>
       <c r="V25" t="n">
-        <v>796.3235008375806</v>
+        <v>995.2695091563625</v>
       </c>
       <c r="W25" t="n">
-        <v>506.90633080062</v>
+        <v>995.2695091563625</v>
       </c>
       <c r="X25" t="n">
-        <v>278.9167799026026</v>
+        <v>995.2695091563625</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.9167799026026</v>
+        <v>995.2695091563625</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6230,16 +6230,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993045</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763014</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301114</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177756</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353825</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783404</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413798</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433625</v>
+        <v>1192.153085585153</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.8664332433625</v>
+        <v>1192.153085585153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6473,40 +6473,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3070.887536710053</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3573.86000758939</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>300.0484256555949</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C31" t="n">
-        <v>300.0484256555949</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D31" t="n">
-        <v>149.9317862432592</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E31" t="n">
-        <v>149.9317862432592</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>149.9317862432592</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9317862432592</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>149.9317862432592</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1761.562056856128</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208124</v>
+        <v>1506.877568650241</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838518</v>
+        <v>1506.877568650241</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858346</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858346</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6707,28 +6707,28 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3082.932479700092</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3962.897130029547</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423048</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839444</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6862,10 +6862,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208131</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838524</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858351</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423049</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420602</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7005,19 +7005,19 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>787.5808954301574</v>
+        <v>787.5808954301617</v>
       </c>
       <c r="C37" t="n">
-        <v>666.0388687276414</v>
+        <v>666.0388687276461</v>
       </c>
       <c r="D37" t="n">
-        <v>563.3163855406966</v>
+        <v>563.3163855407015</v>
       </c>
       <c r="E37" t="n">
-        <v>464.1200576338189</v>
+        <v>462.7974481836997</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663612995</v>
+        <v>363.3016569111805</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614093</v>
+        <v>242.9929765112913</v>
       </c>
       <c r="H37" t="n">
-        <v>145.492555404658</v>
+        <v>144.1699459545403</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118356</v>
+        <v>187.1346794118359</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748772177</v>
+        <v>437.5728748772183</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858422194</v>
+        <v>800.5836858422203</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958274</v>
+        <v>1191.191743958275</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180645</v>
+        <v>1579.051133180646</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617564</v>
+        <v>1924.831744617565</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567728</v>
+        <v>2203.89025756773</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236749</v>
+        <v>2327.951566236751</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219668</v>
+        <v>2285.51526521967</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271886</v>
+        <v>2141.223537271888</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.851078066803</v>
+        <v>1966.851078066805</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.142367417837</v>
+        <v>1725.14236741784</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.852035437342</v>
+        <v>1517.852035437345</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625772</v>
+        <v>1275.829021625775</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.233626953145</v>
+        <v>1095.233626953149</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.8352040350062</v>
+        <v>921.8352040350102</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1099.399357643587</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1963.918173296941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7552,16 +7552,16 @@
         <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,49 +7649,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2628.734306600803</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3175.513123659585</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4055.47777398904</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499226</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415598</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>95.63218401018423</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>293.5841857675331</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5216619768455</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>169.4443742409946</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202247</v>
+        <v>15.16213830202241</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,22 +8933,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>70.93775980332867</v>
+        <v>68.55225201545329</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.444374240995</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>379.5216619768455</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202247</v>
+        <v>15.16213830202241</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>151.5272873414395</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>127.4845029525644</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>61.05889333690817</v>
+        <v>43.35333890058621</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.16213830202247</v>
+        <v>15.16213830202241</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>223.6010494145479</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>95.63218401018258</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8.681316673385936</v>
+        <v>61.05889333690669</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.16213830202247</v>
+        <v>15.16213830202241</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>98.88315645029996</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.28605875464315</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>43.35333890058621</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>169.4443742409964</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.16213830202247</v>
+        <v>15.16213830202241</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,19 +9878,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>285.7011105564206</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>294.8707872801639</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>48.50256772349422</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>32.86979469803691</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>316.9032015413811</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>258.6211785616931</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>20.70318561719034</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.39220385628654</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>100.2642086182832</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824705</v>
+        <v>98.05094259824702</v>
       </c>
       <c r="S13" t="n">
         <v>193.3033399882067</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4154739964004</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>125.4997281964745</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824706</v>
+        <v>98.05094259824702</v>
       </c>
       <c r="S16" t="n">
         <v>193.3033399882067</v>
@@ -23707,19 +23707,19 @@
         <v>220.4154739963984</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.93388623415382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>144.4416656932547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2286119169542</v>
+        <v>16.47236348610014</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>102.451279504558</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.05094259824705</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>111.0436481578865</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.05094259824705</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.6757431080027</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>132.8694212335832</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.2286119169542</v>
@@ -24382,7 +24382,7 @@
         <v>146.5581238002446</v>
       </c>
       <c r="I25" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.05094259824706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>101.7041508456335</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.7364564735468</v>
+        <v>109.0563979260739</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.52537613292201</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>93.37824304952261</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.556976973656576</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>35.78604060866771</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.309383355623197</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.309383355616298</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>971982.551644932</v>
+        <v>971982.5516449321</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>971982.5516449321</v>
+        <v>971982.551644932</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970351.8669182698</v>
+        <v>970351.8669182699</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>970351.8669182698</v>
+        <v>970351.8669182699</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26323,37 +26323,37 @@
         <v>433903.3011814561</v>
       </c>
       <c r="F2" t="n">
-        <v>433903.3011814561</v>
+        <v>433903.3011814563</v>
       </c>
       <c r="G2" t="n">
         <v>433903.3011814563</v>
       </c>
       <c r="H2" t="n">
-        <v>433903.3011814562</v>
+        <v>433903.3011814564</v>
       </c>
       <c r="I2" t="n">
-        <v>433903.3011814561</v>
+        <v>433903.3011814563</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756812</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756814</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="L2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="M2" t="n">
-        <v>451555.6895650612</v>
+        <v>451555.6895650617</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.879214545</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282958</v>
+        <v>639703.3804282962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527455</v>
+        <v>257274.6877527449</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097376942</v>
+        <v>169415.1097376946</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756436442686</v>
+        <v>43.93756436415401</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571278</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488299</v>
+        <v>26074.75651488297</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.75651488305</v>
+        <v>26074.756514883</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.75651488301</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488305</v>
+        <v>26074.756514883</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.75651488305</v>
+        <v>26074.75651488301</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918997</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123699947</v>
+        <v>33587.5812369996</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740894</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,22 +26482,22 @@
         <v>94477.49060940044</v>
       </c>
       <c r="G5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="H5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="I5" t="n">
-        <v>94477.49060940044</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>100328.0537802289</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097265</v>
+        <v>-404602.6707097259</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048186</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.208504819</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="E6" t="n">
-        <v>-326352.3263711231</v>
+        <v>-326432.6430631411</v>
       </c>
       <c r="F6" t="n">
-        <v>313351.0540571726</v>
+        <v>313270.7373651551</v>
       </c>
       <c r="G6" t="n">
-        <v>313351.0540571728</v>
+        <v>313270.7373651551</v>
       </c>
       <c r="H6" t="n">
-        <v>313351.0540571727</v>
+        <v>313270.7373651552</v>
       </c>
       <c r="I6" t="n">
-        <v>313351.0540571726</v>
+        <v>313270.7373651551</v>
       </c>
       <c r="J6" t="n">
-        <v>64983.26725003218</v>
+        <v>64916.07175980703</v>
       </c>
       <c r="K6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125521</v>
       </c>
       <c r="L6" t="n">
-        <v>322257.9550027778</v>
+        <v>322190.759512552</v>
       </c>
       <c r="M6" t="n">
-        <v>148224.9448101386</v>
+        <v>148224.8662471372</v>
       </c>
       <c r="N6" t="n">
-        <v>317590.7115494807</v>
+        <v>317590.7115494809</v>
       </c>
       <c r="O6" t="n">
         <v>317634.649113845</v>
       </c>
       <c r="P6" t="n">
-        <v>317634.6491138449</v>
+        <v>317634.649113845</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.3128539252467</v>
+        <v>977.3128539252472</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252466</v>
+        <v>977.3128539252472</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252467</v>
+        <v>977.3128539252472</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252467</v>
+        <v>977.3128539252472</v>
       </c>
       <c r="I3" t="n">
-        <v>977.3128539252466</v>
+        <v>977.3128539252472</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195545553358</v>
+        <v>0.05492195545519252</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.407766674449406e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.5691897081601</v>
+        <v>599.5691897081606</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.4638466680517</v>
+        <v>112.4638466680511</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>529.2007271439651</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3122034609654</v>
+        <v>665.312203460965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439649</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>138.1848504879267</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7855734052897</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.15562915441215</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853695</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>70.21213748911359</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5.765029445073196</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.69052890084635</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>45.2436853681851</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853694</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491423</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>63.1320406208998</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.92067573951471</v>
+        <v>279.1644159547437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.25676420482328</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,10 +28105,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466313702</v>
+        <v>46.92021466313737</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396486</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813583</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176868</v>
+        <v>3.92889589517687</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648011</v>
+        <v>40.23680508648013</v>
       </c>
       <c r="I11" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J11" t="n">
-        <v>333.460127983268</v>
+        <v>333.4601279832682</v>
       </c>
       <c r="K11" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261052</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781241</v>
+        <v>620.0092389781245</v>
       </c>
       <c r="M11" t="n">
-        <v>689.8797413539758</v>
+        <v>689.8797413539761</v>
       </c>
       <c r="N11" t="n">
-        <v>701.042716816147</v>
+        <v>701.0427168161474</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584824</v>
       </c>
       <c r="P11" t="n">
-        <v>564.980140846303</v>
+        <v>564.9801408463034</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2765566002813</v>
+        <v>424.2765566002815</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754043</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134297</v>
+        <v>89.52971521134302</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141495</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H12" t="n">
         <v>20.30229155040938</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597347</v>
+        <v>72.37647078597351</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962618</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4502579525076</v>
+        <v>339.4502579525078</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808428</v>
+        <v>456.4327625808431</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892594</v>
+        <v>532.6355053892596</v>
       </c>
       <c r="N12" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105022</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951216</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509188</v>
+        <v>401.417424850919</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305698</v>
       </c>
       <c r="R12" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408886</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880206</v>
       </c>
       <c r="U12" t="n">
         <v>0.1382989887630067</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504544</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99919542270028</v>
+        <v>52.9991954227003</v>
       </c>
       <c r="J13" t="n">
         <v>124.5993781143712</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851391</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2591072169349</v>
+        <v>276.259107216935</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167819</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955696</v>
       </c>
       <c r="P13" t="n">
         <v>213.1503312888767</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427122</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892247</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876552</v>
+        <v>30.71325804876554</v>
       </c>
       <c r="T13" t="n">
-        <v>7.530115431883046</v>
+        <v>7.530115431883049</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09612913317297518</v>
+        <v>0.09612913317297524</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176868</v>
+        <v>3.92889589517687</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648011</v>
+        <v>40.23680508648013</v>
       </c>
       <c r="I14" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J14" t="n">
-        <v>333.460127983268</v>
+        <v>333.4601279832682</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7702912261049</v>
+        <v>499.7702912261052</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781241</v>
+        <v>620.0092389781245</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539756</v>
+        <v>689.8797413539761</v>
       </c>
       <c r="N14" t="n">
-        <v>701.042716816147</v>
+        <v>701.0427168161474</v>
       </c>
       <c r="O14" t="n">
-        <v>661.974758258482</v>
+        <v>661.9747582584824</v>
       </c>
       <c r="P14" t="n">
-        <v>564.980140846303</v>
+        <v>564.9801408463034</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002813</v>
+        <v>424.2765566002815</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754041</v>
+        <v>246.7985067754043</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134296</v>
+        <v>89.52971521134302</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141495</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1021446291977</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040937</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597347</v>
+        <v>72.37647078597351</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962618</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525076</v>
+        <v>339.4502579525078</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808428</v>
+        <v>456.4327625808431</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892594</v>
+        <v>532.6355053892596</v>
       </c>
       <c r="N15" t="n">
-        <v>546.7327823105019</v>
+        <v>546.7327823105022</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951212</v>
+        <v>500.1536828951216</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509188</v>
+        <v>401.417424850919</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305696</v>
+        <v>268.3369179305698</v>
       </c>
       <c r="R15" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408886</v>
       </c>
       <c r="T15" t="n">
-        <v>8.4731180448802</v>
+        <v>8.473118044880206</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630066</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504544</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270027</v>
+        <v>52.9991954227003</v>
       </c>
       <c r="J16" t="n">
         <v>124.5993781143712</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851391</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2591072169348</v>
+        <v>276.259107216935</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167819</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955696</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888766</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427122</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892242</v>
+        <v>79.24244877892247</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876552</v>
+        <v>30.71325804876554</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883045</v>
+        <v>7.530115431883049</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09612913317297518</v>
+        <v>0.09612913317297524</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176868</v>
+        <v>3.92889589517687</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648011</v>
+        <v>40.23680508648013</v>
       </c>
       <c r="I17" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J17" t="n">
-        <v>333.460127983268</v>
+        <v>333.4601279832682</v>
       </c>
       <c r="K17" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261052</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781241</v>
+        <v>620.0092389781245</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539758</v>
+        <v>689.8797413539761</v>
       </c>
       <c r="N17" t="n">
-        <v>701.042716816147</v>
+        <v>701.0427168161474</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584824</v>
       </c>
       <c r="P17" t="n">
-        <v>564.980140846303</v>
+        <v>564.9801408463034</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002813</v>
+        <v>424.2765566002815</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754043</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134297</v>
+        <v>89.52971521134302</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141495</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H18" t="n">
         <v>20.30229155040938</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597347</v>
+        <v>72.37647078597351</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962618</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525076</v>
+        <v>339.4502579525078</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808428</v>
+        <v>456.4327625808431</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892594</v>
+        <v>532.6355053892596</v>
       </c>
       <c r="N18" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105022</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951216</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509188</v>
+        <v>401.417424850919</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305698</v>
       </c>
       <c r="R18" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408886</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880206</v>
       </c>
       <c r="U18" t="n">
         <v>0.1382989887630067</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504544</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99919542270028</v>
+        <v>52.9991954227003</v>
       </c>
       <c r="J19" t="n">
         <v>124.5993781143712</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851391</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2591072169349</v>
+        <v>276.259107216935</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167819</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955696</v>
       </c>
       <c r="P19" t="n">
         <v>213.1503312888767</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427122</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892247</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876552</v>
+        <v>30.71325804876554</v>
       </c>
       <c r="T19" t="n">
-        <v>7.530115431883046</v>
+        <v>7.530115431883049</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297518</v>
+        <v>0.09612913317297524</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176868</v>
+        <v>3.92889589517687</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648011</v>
+        <v>40.23680508648013</v>
       </c>
       <c r="I20" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J20" t="n">
-        <v>333.460127983268</v>
+        <v>333.4601279832682</v>
       </c>
       <c r="K20" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261052</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781241</v>
+        <v>620.0092389781245</v>
       </c>
       <c r="M20" t="n">
-        <v>689.8797413539758</v>
+        <v>689.8797413539761</v>
       </c>
       <c r="N20" t="n">
-        <v>701.042716816147</v>
+        <v>701.0427168161474</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584824</v>
       </c>
       <c r="P20" t="n">
-        <v>564.980140846303</v>
+        <v>564.9801408463034</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2765566002813</v>
+        <v>424.2765566002815</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754043</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134297</v>
+        <v>89.52971521134302</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141495</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H21" t="n">
         <v>20.30229155040938</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597347</v>
+        <v>72.37647078597351</v>
       </c>
       <c r="J21" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962618</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4502579525076</v>
+        <v>339.4502579525078</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4327625808428</v>
+        <v>456.4327625808431</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892594</v>
+        <v>532.6355053892596</v>
       </c>
       <c r="N21" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105022</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951216</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509188</v>
+        <v>401.417424850919</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305698</v>
       </c>
       <c r="R21" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408886</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880206</v>
       </c>
       <c r="U21" t="n">
         <v>0.1382989887630067</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504544</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99919542270028</v>
+        <v>52.9991954227003</v>
       </c>
       <c r="J22" t="n">
         <v>124.5993781143712</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851391</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2591072169349</v>
+        <v>276.259107216935</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167819</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955696</v>
       </c>
       <c r="P22" t="n">
         <v>213.1503312888767</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427122</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892247</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876552</v>
+        <v>30.71325804876554</v>
       </c>
       <c r="T22" t="n">
-        <v>7.530115431883046</v>
+        <v>7.530115431883049</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09612913317297518</v>
+        <v>0.09612913317297524</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928895895176868</v>
+        <v>3.92889589517687</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23680508648011</v>
+        <v>40.23680508648013</v>
       </c>
       <c r="I23" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J23" t="n">
-        <v>333.460127983268</v>
+        <v>333.4601279832682</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7702912261049</v>
+        <v>499.7702912261052</v>
       </c>
       <c r="L23" t="n">
-        <v>620.0092389781241</v>
+        <v>620.0092389781245</v>
       </c>
       <c r="M23" t="n">
-        <v>689.8797413539756</v>
+        <v>689.8797413539761</v>
       </c>
       <c r="N23" t="n">
-        <v>701.042716816147</v>
+        <v>701.0427168161474</v>
       </c>
       <c r="O23" t="n">
-        <v>661.974758258482</v>
+        <v>661.9747582584824</v>
       </c>
       <c r="P23" t="n">
-        <v>564.980140846303</v>
+        <v>564.9801408463034</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2765566002813</v>
+        <v>424.2765566002815</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7985067754041</v>
+        <v>246.7985067754043</v>
       </c>
       <c r="S23" t="n">
-        <v>89.52971521134296</v>
+        <v>89.52971521134302</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141495</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1021446291977</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H24" t="n">
-        <v>20.30229155040937</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I24" t="n">
-        <v>72.37647078597347</v>
+        <v>72.37647078597351</v>
       </c>
       <c r="J24" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962618</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4502579525076</v>
+        <v>339.4502579525078</v>
       </c>
       <c r="L24" t="n">
-        <v>456.4327625808428</v>
+        <v>456.4327625808431</v>
       </c>
       <c r="M24" t="n">
-        <v>532.6355053892594</v>
+        <v>532.6355053892596</v>
       </c>
       <c r="N24" t="n">
-        <v>546.7327823105019</v>
+        <v>546.7327823105022</v>
       </c>
       <c r="O24" t="n">
-        <v>500.1536828951212</v>
+        <v>500.1536828951216</v>
       </c>
       <c r="P24" t="n">
-        <v>401.4174248509188</v>
+        <v>401.417424850919</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.3369179305696</v>
+        <v>268.3369179305698</v>
       </c>
       <c r="R24" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408886</v>
       </c>
       <c r="T24" t="n">
-        <v>8.4731180448802</v>
+        <v>8.473118044880206</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382989887630066</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504544</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99919542270027</v>
+        <v>52.9991954227003</v>
       </c>
       <c r="J25" t="n">
         <v>124.5993781143712</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L25" t="n">
-        <v>262.0159739851391</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2591072169348</v>
+        <v>276.259107216935</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167819</v>
       </c>
       <c r="O25" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955696</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1503312888766</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5742409427122</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R25" t="n">
-        <v>79.24244877892242</v>
+        <v>79.24244877892247</v>
       </c>
       <c r="S25" t="n">
-        <v>30.71325804876552</v>
+        <v>30.71325804876554</v>
       </c>
       <c r="T25" t="n">
-        <v>7.530115431883045</v>
+        <v>7.530115431883049</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09612913317297518</v>
+        <v>0.09612913317297524</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.017335757707</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713859</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355116</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.5108386286555</v>
+        <v>152.4142234565819</v>
       </c>
       <c r="K11" t="n">
-        <v>603.8258527522892</v>
+        <v>603.8258527522894</v>
       </c>
       <c r="L11" t="n">
-        <v>479.8750080183211</v>
+        <v>801.9040385585877</v>
       </c>
       <c r="M11" t="n">
-        <v>909.0470416195355</v>
+        <v>909.0470416195359</v>
       </c>
       <c r="N11" t="n">
-        <v>471.6296532195561</v>
+        <v>471.6296532195565</v>
       </c>
       <c r="O11" t="n">
-        <v>812.6767280995407</v>
+        <v>725.4607326043288</v>
       </c>
       <c r="P11" t="n">
-        <v>655.5458532625162</v>
+        <v>655.5458532625164</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2858573857365</v>
+        <v>414.2858573857367</v>
       </c>
       <c r="R11" t="n">
-        <v>96.9293888342545</v>
+        <v>31.21296896127217</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.76894112959502</v>
+        <v>71.76894112959513</v>
       </c>
       <c r="K12" t="n">
-        <v>201.6088189781486</v>
+        <v>201.6088189781488</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009689</v>
       </c>
       <c r="M12" t="n">
-        <v>390.5014714672411</v>
+        <v>390.5014714672413</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271689</v>
       </c>
       <c r="O12" t="n">
-        <v>737.0791004275223</v>
+        <v>357.5574384506771</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365886</v>
+        <v>436.8873916775834</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3551438445481</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.24019799769842</v>
+        <v>31.24019799769847</v>
       </c>
       <c r="K13" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325541</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454552</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960103</v>
+        <v>313.8224554960104</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096092</v>
+        <v>273.687755009605</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4288905537701</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101785</v>
+        <v>61.41219769101794</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>321.5108386286554</v>
+        <v>152.4142234565819</v>
       </c>
       <c r="K14" t="n">
-        <v>603.8258527522892</v>
+        <v>603.8258527522894</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585873</v>
+        <v>801.9040385585877</v>
       </c>
       <c r="M14" t="n">
-        <v>459.5335081267029</v>
+        <v>909.0470416195359</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315403</v>
+        <v>908.9765776315406</v>
       </c>
       <c r="O14" t="n">
-        <v>502.8143066401239</v>
+        <v>500.428798852249</v>
       </c>
       <c r="P14" t="n">
-        <v>655.5458532625162</v>
+        <v>655.5458532625164</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.2858573857364</v>
+        <v>201.9708667258321</v>
       </c>
       <c r="R14" t="n">
-        <v>96.92938883425447</v>
+        <v>31.21296896127217</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.76894112959502</v>
+        <v>71.76894112959513</v>
       </c>
       <c r="K15" t="n">
-        <v>201.6088189781486</v>
+        <v>371.0531932191439</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8783828009686</v>
+        <v>317.8783828009689</v>
       </c>
       <c r="M15" t="n">
-        <v>770.0231334440865</v>
+        <v>390.5014714672413</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271686</v>
+        <v>415.3910702271689</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5574384506768</v>
+        <v>357.5574384506771</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365885</v>
+        <v>267.4430174365888</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3551438445481</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.2401979976984</v>
+        <v>31.24019799769847</v>
       </c>
       <c r="K16" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325541</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454552</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787754</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960103</v>
+        <v>313.8224554960104</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096093</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537701</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101785</v>
+        <v>61.41219769101794</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.4142234565817</v>
+        <v>321.5108386286557</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6804401811244</v>
+        <v>603.8258527522894</v>
       </c>
       <c r="L17" t="n">
-        <v>535.7701113495764</v>
+        <v>801.9040385585877</v>
       </c>
       <c r="M17" t="n">
-        <v>909.0470416195355</v>
+        <v>587.0180110792678</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9765776315403</v>
+        <v>471.6296532195565</v>
       </c>
       <c r="O17" t="n">
-        <v>812.6767280995407</v>
+        <v>812.676728099541</v>
       </c>
       <c r="P17" t="n">
-        <v>655.5458532625162</v>
+        <v>655.5458532625164</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.2858573857365</v>
+        <v>414.2858573857367</v>
       </c>
       <c r="R17" t="n">
-        <v>96.9293888342545</v>
+        <v>96.92938883425461</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.76894112959502</v>
+        <v>197.859976470004</v>
       </c>
       <c r="K18" t="n">
-        <v>262.6677123150568</v>
+        <v>244.962157878735</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009689</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672411</v>
+        <v>390.5014714672413</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271689</v>
       </c>
       <c r="O18" t="n">
-        <v>357.5574384506768</v>
+        <v>357.5574384506771</v>
       </c>
       <c r="P18" t="n">
-        <v>585.9057860765258</v>
+        <v>267.4430174365888</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.3551438445481</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769842</v>
+        <v>31.24019799769847</v>
       </c>
       <c r="K19" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325541</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454552</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960103</v>
+        <v>313.8224554960104</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096093</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537701</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101785</v>
+        <v>61.41219769101794</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>321.5108386286555</v>
+        <v>321.5108386286557</v>
       </c>
       <c r="K20" t="n">
-        <v>503.2814895956723</v>
+        <v>603.8258527522894</v>
       </c>
       <c r="L20" t="n">
-        <v>801.9040385585873</v>
+        <v>384.2428240081372</v>
       </c>
       <c r="M20" t="n">
-        <v>909.0470416195355</v>
+        <v>909.0470416195359</v>
       </c>
       <c r="N20" t="n">
-        <v>908.9765776315403</v>
+        <v>567.2618372297391</v>
       </c>
       <c r="O20" t="n">
-        <v>431.8765468367953</v>
+        <v>812.676728099541</v>
       </c>
       <c r="P20" t="n">
-        <v>655.5458532625162</v>
+        <v>655.5458532625164</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9708667258318</v>
+        <v>414.2858573857367</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21296896127205</v>
+        <v>96.92938883425461</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.76894112959502</v>
+        <v>71.76894112959513</v>
       </c>
       <c r="K21" t="n">
-        <v>201.6088189781486</v>
+        <v>201.6088189781488</v>
       </c>
       <c r="L21" t="n">
-        <v>688.7187281044278</v>
+        <v>317.8783828009689</v>
       </c>
       <c r="M21" t="n">
-        <v>390.5014714672411</v>
+        <v>390.5014714672413</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271689</v>
       </c>
       <c r="O21" t="n">
-        <v>366.2387551240628</v>
+        <v>418.6163317875838</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4430174365886</v>
+        <v>585.9057860765259</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.3551438445481</v>
+        <v>128.3551438445483</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.24019799769842</v>
+        <v>31.24019799769847</v>
       </c>
       <c r="K22" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325541</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454552</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960103</v>
+        <v>313.8224554960104</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096093</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537701</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101785</v>
+        <v>61.41219769101794</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.5108386286554</v>
+        <v>321.5108386286557</v>
       </c>
       <c r="K23" t="n">
-        <v>279.6804401811244</v>
+        <v>378.5635966314246</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585873</v>
+        <v>801.9040385585877</v>
       </c>
       <c r="M23" t="n">
-        <v>909.0470416195354</v>
+        <v>909.0470416195359</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9765776315403</v>
+        <v>908.9765776315406</v>
       </c>
       <c r="O23" t="n">
-        <v>431.8765468367952</v>
+        <v>812.676728099541</v>
       </c>
       <c r="P23" t="n">
-        <v>655.5458532625162</v>
+        <v>333.7471450910338</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.2858573857364</v>
+        <v>201.9708667258321</v>
       </c>
       <c r="R23" t="n">
-        <v>42.49902771591518</v>
+        <v>96.92938883425461</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.76894112959502</v>
+        <v>197.859976470004</v>
       </c>
       <c r="K24" t="n">
-        <v>201.6088189781486</v>
+        <v>244.962157878735</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8783828009686</v>
+        <v>317.8783828009689</v>
       </c>
       <c r="M24" t="n">
-        <v>390.5014714672411</v>
+        <v>390.5014714672413</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271686</v>
+        <v>415.3910702271689</v>
       </c>
       <c r="O24" t="n">
-        <v>357.5574384506768</v>
+        <v>357.5574384506771</v>
       </c>
       <c r="P24" t="n">
-        <v>436.887391677585</v>
+        <v>267.4430174365888</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.4324315803972</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.2401979976984</v>
+        <v>31.24019799769847</v>
       </c>
       <c r="K25" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325541</v>
       </c>
       <c r="L25" t="n">
-        <v>289.6059992454552</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8429841787754</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N25" t="n">
-        <v>313.8224554960103</v>
+        <v>313.8224554960104</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096093</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4288905537701</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.41219769101785</v>
+        <v>61.41219769101794</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>838.0029459693321</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>693.6327734995358</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>447.2645539428661</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>571.7909105282638</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127620327</v>
+        <v>92.49863127620358</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9678742074566</v>
+        <v>252.9678742074569</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333352</v>
+        <v>366.6775868333355</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566209</v>
+        <v>394.5535940566211</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306772</v>
+        <v>391.7771608306774</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857769</v>
+        <v>349.2733448857771</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082475</v>
+        <v>281.8772858082478</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010307</v>
+        <v>125.314453201031</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>654.0944880967816</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>797.5422943919199</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>419.4651718365622</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
